--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>264.1328792516094</v>
+        <v>405.9931036419758</v>
       </c>
       <c r="R2">
-        <v>2377.195913264484</v>
+        <v>3653.937932777782</v>
       </c>
       <c r="S2">
-        <v>0.0006309070475387793</v>
+        <v>0.0008879480896019494</v>
       </c>
       <c r="T2">
-        <v>0.0006584784979334465</v>
+        <v>0.0009202803544572025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>1739.483070722428</v>
+        <v>2055.249509727493</v>
       </c>
       <c r="R3">
-        <v>15655.34763650186</v>
+        <v>18497.24558754743</v>
       </c>
       <c r="S3">
-        <v>0.004154924337714727</v>
+        <v>0.004495039101519328</v>
       </c>
       <c r="T3">
-        <v>0.004336499881557191</v>
+        <v>0.004658713978989014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>1460.836961510429</v>
+        <v>2395.403355527602</v>
       </c>
       <c r="R4">
-        <v>13147.53265359386</v>
+        <v>21558.63019974842</v>
       </c>
       <c r="S4">
-        <v>0.003489351030183989</v>
+        <v>0.005238990057433385</v>
       </c>
       <c r="T4">
-        <v>0.003641840163430493</v>
+        <v>0.005429753927635423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>645.1985790441665</v>
+        <v>731.7023961425803</v>
       </c>
       <c r="R5">
-        <v>3871.191474264999</v>
+        <v>4390.214376855482</v>
       </c>
       <c r="S5">
-        <v>0.001541119499148801</v>
+        <v>0.001600307342621567</v>
       </c>
       <c r="T5">
-        <v>0.001072312270504552</v>
+        <v>0.001105718848323245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>1503.883591831075</v>
+        <v>2776.593879251358</v>
       </c>
       <c r="R6">
-        <v>13534.95232647967</v>
+        <v>24989.34491326222</v>
       </c>
       <c r="S6">
-        <v>0.003592172089489601</v>
+        <v>0.006072692389513789</v>
       </c>
       <c r="T6">
-        <v>0.003749154635430148</v>
+        <v>0.006293813309780937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>15580.58709518092</v>
+        <v>20269.15587375134</v>
       </c>
       <c r="R7">
-        <v>140225.2838566283</v>
+        <v>182422.4028637621</v>
       </c>
       <c r="S7">
-        <v>0.0372157462221035</v>
+        <v>0.04433069939979348</v>
       </c>
       <c r="T7">
-        <v>0.03884212225462069</v>
+        <v>0.04594488375470916</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>102608.0795422913</v>
@@ -948,10 +948,10 @@
         <v>923472.7158806216</v>
       </c>
       <c r="S8">
-        <v>0.2450893682796091</v>
+        <v>0.2244142754888963</v>
       </c>
       <c r="T8">
-        <v>0.2558000892743151</v>
+        <v>0.2325857236595426</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>86171.39060900925</v>
+        <v>119590.2185484218</v>
       </c>
       <c r="R9">
-        <v>775542.5154810833</v>
+        <v>1076311.966935796</v>
       </c>
       <c r="S9">
-        <v>0.2058287396309055</v>
+        <v>0.2615559356613951</v>
       </c>
       <c r="T9">
-        <v>0.2148237205978627</v>
+        <v>0.2710797984697026</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>38058.77058156273</v>
+        <v>36530.1523291144</v>
       </c>
       <c r="R10">
-        <v>228352.6234893764</v>
+        <v>219180.9139746864</v>
       </c>
       <c r="S10">
-        <v>0.09090707165500747</v>
+        <v>0.07989514768238459</v>
       </c>
       <c r="T10">
-        <v>0.06325321849807376</v>
+        <v>0.05520287780299989</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>88710.61168124079</v>
+        <v>138621.108663657</v>
       </c>
       <c r="R11">
-        <v>798395.5051311671</v>
+        <v>1247589.977972913</v>
       </c>
       <c r="S11">
-        <v>0.2118939158947201</v>
+        <v>0.3031784222742454</v>
       </c>
       <c r="T11">
-        <v>0.2211539528745162</v>
+        <v>0.3142178570814794</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>642.1190577815868</v>
+        <v>805.9680394995609</v>
       </c>
       <c r="R12">
-        <v>5779.07152003428</v>
+        <v>7253.712355496048</v>
       </c>
       <c r="S12">
-        <v>0.001533763763380077</v>
+        <v>0.001762733835954428</v>
       </c>
       <c r="T12">
-        <v>0.001600791214863051</v>
+        <v>0.001826919093990113</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>4228.762559072818</v>
+        <v>4080.033387705649</v>
       </c>
       <c r="R13">
-        <v>38058.86303165535</v>
+        <v>36720.30048935083</v>
       </c>
       <c r="S13">
-        <v>0.01010081027567077</v>
+        <v>0.00892344677686991</v>
       </c>
       <c r="T13">
-        <v>0.01054222869150244</v>
+        <v>0.00924837032588148</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>3551.361178340987</v>
+        <v>4755.298868248173</v>
       </c>
       <c r="R14">
-        <v>31962.25060506888</v>
+        <v>42797.68981423356</v>
       </c>
       <c r="S14">
-        <v>0.00848277125558688</v>
+        <v>0.01040032086178204</v>
       </c>
       <c r="T14">
-        <v>0.008853479282696608</v>
+        <v>0.01077902084731102</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>1568.507127290305</v>
+        <v>1452.558529753297</v>
       </c>
       <c r="R15">
-        <v>9411.042763741831</v>
+        <v>8715.351178519782</v>
       </c>
       <c r="S15">
-        <v>0.003746531683318365</v>
+        <v>0.003176892809161756</v>
       </c>
       <c r="T15">
-        <v>0.002606839961518428</v>
+        <v>0.00219504726663209</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>3656.009496946694</v>
+        <v>5512.029404618009</v>
       </c>
       <c r="R16">
-        <v>32904.08547252024</v>
+        <v>49608.26464156208</v>
       </c>
       <c r="S16">
-        <v>0.008732733933116819</v>
+        <v>0.01205536728519518</v>
       </c>
       <c r="T16">
-        <v>0.009114365651110838</v>
+        <v>0.01249433137843064</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>218.727691393016</v>
+        <v>409.7678794866367</v>
       </c>
       <c r="R17">
-        <v>1312.366148358096</v>
+        <v>2458.60727691982</v>
       </c>
       <c r="S17">
-        <v>0.0005224523443758288</v>
+        <v>0.0008962039071758804</v>
       </c>
       <c r="T17">
-        <v>0.0003635227897236402</v>
+        <v>0.0006192245237605222</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>1440.46101853877</v>
+        <v>2074.358470284892</v>
       </c>
       <c r="R18">
-        <v>8642.76611123262</v>
+        <v>12446.15082170935</v>
       </c>
       <c r="S18">
-        <v>0.00344068111049246</v>
+        <v>0.004536832336106347</v>
       </c>
       <c r="T18">
-        <v>0.002394028870384218</v>
+        <v>0.003134686001938463</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>1209.714962401136</v>
+        <v>2417.674942516525</v>
       </c>
       <c r="R19">
-        <v>7258.289774406817</v>
+        <v>14506.04965509915</v>
       </c>
       <c r="S19">
-        <v>0.002889521734115333</v>
+        <v>0.005287700276749468</v>
       </c>
       <c r="T19">
-        <v>0.002010531703150098</v>
+        <v>0.003653491866573612</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>534.287121255939</v>
+        <v>738.5054982289525</v>
       </c>
       <c r="R20">
-        <v>2137.148485023756</v>
+        <v>2954.02199291581</v>
       </c>
       <c r="S20">
-        <v>0.001276196705100372</v>
+        <v>0.00161518641679</v>
       </c>
       <c r="T20">
-        <v>0.0005919858419858444</v>
+        <v>0.0007439996126722009</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>1245.361755405328</v>
+        <v>2802.409636740367</v>
       </c>
       <c r="R21">
-        <v>7472.170532431969</v>
+        <v>16814.4578204422</v>
       </c>
       <c r="S21">
-        <v>0.002974667562958085</v>
+        <v>0.006129154069129427</v>
       </c>
       <c r="T21">
-        <v>0.002069776243953581</v>
+        <v>0.004234887260725481</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>2993.384788050229</v>
+        <v>300.621770750678</v>
       </c>
       <c r="R22">
-        <v>26940.46309245205</v>
+        <v>2705.595936756102</v>
       </c>
       <c r="S22">
-        <v>0.007149990429541565</v>
+        <v>0.0006574902988160537</v>
       </c>
       <c r="T22">
-        <v>0.007462454218335004</v>
+        <v>0.0006814310569865112</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>19713.34344184904</v>
+        <v>1521.830645413115</v>
       </c>
       <c r="R23">
-        <v>177420.0909766413</v>
+        <v>13696.47580871803</v>
       </c>
       <c r="S23">
-        <v>0.04708723633064759</v>
+        <v>0.003328397951025109</v>
       </c>
       <c r="T23">
-        <v>0.04914500919239807</v>
+        <v>0.003449592698056398</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>16555.48203917969</v>
+        <v>1773.701060291535</v>
       </c>
       <c r="R24">
-        <v>148999.3383526172</v>
+        <v>15963.30954262381</v>
       </c>
       <c r="S24">
-        <v>0.03954437752511081</v>
+        <v>0.003879264090652364</v>
       </c>
       <c r="T24">
-        <v>0.04127251774414136</v>
+        <v>0.004020517161064026</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>7311.954563379725</v>
+        <v>541.7965675221735</v>
       </c>
       <c r="R25">
-        <v>43871.72738027835</v>
+        <v>3250.779405133041</v>
       </c>
       <c r="S25">
-        <v>0.01746531396769113</v>
+        <v>0.001184964036996188</v>
       </c>
       <c r="T25">
-        <v>0.01215238045207645</v>
+        <v>0.0008187408976987532</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>17043.32410088643</v>
+        <v>2055.95750555438</v>
       </c>
       <c r="R26">
-        <v>153389.9169079778</v>
+        <v>18503.61754998942</v>
       </c>
       <c r="S26">
-        <v>0.04070963569247224</v>
+        <v>0.004496587560190894</v>
       </c>
       <c r="T26">
-        <v>0.04248869919391614</v>
+        <v>0.004660318820659174</v>
       </c>
     </row>
   </sheetData>
